--- a/100CroreFilmData.xlsx
+++ b/100CroreFilmData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clubp\Documents\UIUC_2020-2021\MACS_207\Proj_2\MACS-207\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B00C4F4-3025-4071-901A-9B81689F1ABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FBD362-6ADF-4403-BDE0-F2ECE6A719AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7810" xr2:uid="{E3484500-DD51-43FE-A978-719FE100B522}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="324">
   <si>
     <t>Film</t>
   </si>
@@ -370,13 +370,649 @@
   </si>
   <si>
     <t>Yusuf</t>
+  </si>
+  <si>
+    <t>3 Idiots</t>
+  </si>
+  <si>
+    <t>Rajkumar Harani</t>
+  </si>
+  <si>
+    <t>Madhavan</t>
+  </si>
+  <si>
+    <t>Sharman Joshi</t>
+  </si>
+  <si>
+    <t>Kareena Kapoor</t>
+  </si>
+  <si>
+    <t>Boman Irani</t>
+  </si>
+  <si>
+    <t>Omi Vaidya</t>
+  </si>
+  <si>
+    <t>Mona Singh</t>
+  </si>
+  <si>
+    <t>Olivier Lafont</t>
+  </si>
+  <si>
+    <t>Rahul Kumar</t>
+  </si>
+  <si>
+    <t>Parikshit Sahni</t>
+  </si>
+  <si>
+    <t>Farida Dadi</t>
+  </si>
+  <si>
+    <t>Amardeeep Jha</t>
+  </si>
+  <si>
+    <t>Mukund Bhatt</t>
+  </si>
+  <si>
+    <t>Chaitali Bose</t>
+  </si>
+  <si>
+    <t>Javed Jaffrey</t>
+  </si>
+  <si>
+    <t>Jayant Kripalani</t>
+  </si>
+  <si>
+    <t>Arun Bali</t>
+  </si>
+  <si>
+    <t>Shoaib Ahmed</t>
+  </si>
+  <si>
+    <t>Dushyant Wagh</t>
+  </si>
+  <si>
+    <t>Pooja Goswami</t>
+  </si>
+  <si>
+    <t>A.S. Duggal</t>
+  </si>
+  <si>
+    <t>Annapurna Kaul</t>
+  </si>
+  <si>
+    <t>R.S. Kodange</t>
+  </si>
+  <si>
+    <t>Dharmendra Bhurji</t>
+  </si>
+  <si>
+    <t>Meghna Bhalla</t>
+  </si>
+  <si>
+    <t>Harvinder Singh</t>
+  </si>
+  <si>
+    <t>Dilshad Edibam</t>
+  </si>
+  <si>
+    <t>Rajeev Ravindranathan</t>
+  </si>
+  <si>
+    <t>Hitesh Tak</t>
+  </si>
+  <si>
+    <t>Rajendra Patwardhan</t>
+  </si>
+  <si>
+    <t>Achyut Potdar</t>
+  </si>
+  <si>
+    <t>Ali Fazal</t>
+  </si>
+  <si>
+    <t>Madhav Vase</t>
+  </si>
+  <si>
+    <t>Dileep Desai</t>
+  </si>
+  <si>
+    <t>Raghunathan</t>
+  </si>
+  <si>
+    <t>Vaidyanathan</t>
+  </si>
+  <si>
+    <t>Kumar Veer Singh</t>
+  </si>
+  <si>
+    <t>Shailja Dhar</t>
+  </si>
+  <si>
+    <t>Dinesh Kumar</t>
+  </si>
+  <si>
+    <t>Aakash Dabhade</t>
+  </si>
+  <si>
+    <t>Apul Jaisinghani</t>
+  </si>
+  <si>
+    <t>Trilok Sadhwani</t>
+  </si>
+  <si>
+    <t>Akhil Mishra</t>
+  </si>
+  <si>
+    <t>Sonu</t>
+  </si>
+  <si>
+    <t>Atul Tiwari</t>
+  </si>
+  <si>
+    <t>Praful Kulkarni</t>
+  </si>
+  <si>
+    <t>Jalil Parkar</t>
+  </si>
+  <si>
+    <t>Debashish Naha</t>
+  </si>
+  <si>
+    <t>Michael Joseph</t>
+  </si>
+  <si>
+    <t>Smriti</t>
+  </si>
+  <si>
+    <t>Sanjay Sood</t>
+  </si>
+  <si>
+    <t>Dayal Sharma</t>
+  </si>
+  <si>
+    <t>Rakesh Sharma</t>
+  </si>
+  <si>
+    <t>Elihud George</t>
+  </si>
+  <si>
+    <t>Sarvanna</t>
+  </si>
+  <si>
+    <t>Tanveer Ahmed</t>
+  </si>
+  <si>
+    <t>Shankar Sachdev</t>
+  </si>
+  <si>
+    <t>Kishor Patil</t>
+  </si>
+  <si>
+    <t>Insia Lacewalla</t>
+  </si>
+  <si>
+    <t>Keshav Rae</t>
+  </si>
+  <si>
+    <t>Lata Kurdikar</t>
+  </si>
+  <si>
+    <t>Suhas Vaidya</t>
+  </si>
+  <si>
+    <t>Nishi Singh</t>
+  </si>
+  <si>
+    <t>Saurabh Agnihotri</t>
+  </si>
+  <si>
+    <t>Sitaram Sharma</t>
+  </si>
+  <si>
+    <t>Pundit Prayag Raj</t>
+  </si>
+  <si>
+    <t>Supriya Shukla</t>
+  </si>
+  <si>
+    <t>Malvika Singh</t>
+  </si>
+  <si>
+    <t>Tsanwal Namgyal</t>
+  </si>
+  <si>
+    <t>Jigmet Dorjey</t>
+  </si>
+  <si>
+    <t>Freny Bhagat</t>
+  </si>
+  <si>
+    <t>Rohitash Gaud</t>
+  </si>
+  <si>
+    <t>Komal Jha</t>
+  </si>
+  <si>
+    <t>Pitobash</t>
+  </si>
+  <si>
+    <t>Bharat Jha</t>
+  </si>
+  <si>
+    <t>Chennai Express</t>
+  </si>
+  <si>
+    <t>Rohit Shetty</t>
+  </si>
+  <si>
+    <t>Deepika Padukone</t>
+  </si>
+  <si>
+    <t>Shah Rukh Khan</t>
+  </si>
+  <si>
+    <t>Sathyaraj</t>
+  </si>
+  <si>
+    <t>Nikitin Dheer</t>
+  </si>
+  <si>
+    <t>Mukesh Tiwari</t>
+  </si>
+  <si>
+    <t>Priyamani</t>
+  </si>
+  <si>
+    <t>Yogi Babu</t>
+  </si>
+  <si>
+    <t>Delhi Ganesh</t>
+  </si>
+  <si>
+    <t>Parikshit Gosain</t>
+  </si>
+  <si>
+    <t>King Kong</t>
+  </si>
+  <si>
+    <t>Puvisha Manoharan</t>
+  </si>
+  <si>
+    <t>Rohit Mehta</t>
+  </si>
+  <si>
+    <t>Jimmy Moses</t>
+  </si>
+  <si>
+    <t>Besant Ravi</t>
+  </si>
+  <si>
+    <t>Lekh Tandon</t>
+  </si>
+  <si>
+    <t>Sachin Tendulkar</t>
+  </si>
+  <si>
+    <t>Dhoom 3</t>
+  </si>
+  <si>
+    <t>Vijay Krishna Acharya</t>
+  </si>
+  <si>
+    <t>Abhishek Bachchan</t>
+  </si>
+  <si>
+    <t>Katrina Kaif</t>
+  </si>
+  <si>
+    <t>Uday Chopra</t>
+  </si>
+  <si>
+    <t>Jackie Shroff</t>
+  </si>
+  <si>
+    <t>Tabrett Bethell</t>
+  </si>
+  <si>
+    <t>Andrew Bicknell</t>
+  </si>
+  <si>
+    <t>Siddharth Nigam</t>
+  </si>
+  <si>
+    <t>Charles Rasmussen</t>
+  </si>
+  <si>
+    <t>Gavin Marshall</t>
+  </si>
+  <si>
+    <t>James Lamont</t>
+  </si>
+  <si>
+    <t>Girisha Nichani</t>
+  </si>
+  <si>
+    <t>Kapish Chawla</t>
+  </si>
+  <si>
+    <t>Kanishka Soni</t>
+  </si>
+  <si>
+    <t>Kavya Nayak</t>
+  </si>
+  <si>
+    <t>Adit Singh</t>
+  </si>
+  <si>
+    <t>Parth Suri</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Yatin</t>
+  </si>
+  <si>
+    <t>Kim DeJesus</t>
+  </si>
+  <si>
+    <t>Brooke Berg</t>
+  </si>
+  <si>
+    <t>Nick Beyeler</t>
+  </si>
+  <si>
+    <t>Robert Bobinsky</t>
+  </si>
+  <si>
+    <t>Shayna Bofill</t>
+  </si>
+  <si>
+    <t>Daniel Camilleri</t>
+  </si>
+  <si>
+    <t>Gena Ellis</t>
+  </si>
+  <si>
+    <t>Ursula Ellis</t>
+  </si>
+  <si>
+    <t>Weston Ford</t>
+  </si>
+  <si>
+    <t>Darren Elliot Pul</t>
+  </si>
+  <si>
+    <t>Laraia Ashley Gribble</t>
+  </si>
+  <si>
+    <t>Michael David Hammond</t>
+  </si>
+  <si>
+    <t>Christopher Kahler</t>
+  </si>
+  <si>
+    <t>Shanna Lorenz</t>
+  </si>
+  <si>
+    <t>Elly Meyers</t>
+  </si>
+  <si>
+    <t>Paul D. Morgan</t>
+  </si>
+  <si>
+    <t>Krysal Mosley</t>
+  </si>
+  <si>
+    <t>Shree Rammy Pandey</t>
+  </si>
+  <si>
+    <t>Delphine Pontvieux</t>
+  </si>
+  <si>
+    <t>Riya Ray</t>
+  </si>
+  <si>
+    <t>Rocky Rector</t>
+  </si>
+  <si>
+    <t>Denise E. Schroeder</t>
+  </si>
+  <si>
+    <t>Leslie Shraifer</t>
+  </si>
+  <si>
+    <t>Vikas Shrivastav</t>
+  </si>
+  <si>
+    <t>M'laah Kaur Singh</t>
+  </si>
+  <si>
+    <t>January Stern</t>
+  </si>
+  <si>
+    <t>Roger Welp</t>
+  </si>
+  <si>
+    <t>Jacob M Williams</t>
+  </si>
+  <si>
+    <t>Jayme Woj</t>
+  </si>
+  <si>
+    <t>Marianna Adaire</t>
+  </si>
+  <si>
+    <t>Frank M. Ahearn</t>
+  </si>
+  <si>
+    <t>Matthew W. Allen</t>
+  </si>
+  <si>
+    <t>Angelina Angulo</t>
+  </si>
+  <si>
+    <t>Jordyn Paige Bolber</t>
+  </si>
+  <si>
+    <t>Eric Brakke</t>
+  </si>
+  <si>
+    <t>Zack Brakke</t>
+  </si>
+  <si>
+    <t>Brian Christensen</t>
+  </si>
+  <si>
+    <t>Berkeley Clayborne</t>
+  </si>
+  <si>
+    <t>Linden Clayborne</t>
+  </si>
+  <si>
+    <t>Scott Clayborne</t>
+  </si>
+  <si>
+    <t>Sheridan Clayborne</t>
+  </si>
+  <si>
+    <t>Erin E. Clyne</t>
+  </si>
+  <si>
+    <t>Jonathan Coffin</t>
+  </si>
+  <si>
+    <t>Caprice Cole</t>
+  </si>
+  <si>
+    <t>Bryan Conner</t>
+  </si>
+  <si>
+    <t>Justine M. Constantino</t>
+  </si>
+  <si>
+    <t>Eddie J. Fernandez Jr.</t>
+  </si>
+  <si>
+    <t>Robert Finlayson</t>
+  </si>
+  <si>
+    <t>Hudson Ford</t>
+  </si>
+  <si>
+    <t>McKenzie Franklin</t>
+  </si>
+  <si>
+    <t>L. Frost</t>
+  </si>
+  <si>
+    <t>Anna Baird Galloway</t>
+  </si>
+  <si>
+    <t>Gary W Golden</t>
+  </si>
+  <si>
+    <t>Kahlia Greksa</t>
+  </si>
+  <si>
+    <t>Karinna Greksa</t>
+  </si>
+  <si>
+    <t>Kriz Chris Henri Harriz</t>
+  </si>
+  <si>
+    <t>Larry Hauge</t>
+  </si>
+  <si>
+    <t>Michael L. Howard</t>
+  </si>
+  <si>
+    <t>Sarah Irwin</t>
+  </si>
+  <si>
+    <t>Mia Klein</t>
+  </si>
+  <si>
+    <t>Olia Klein</t>
+  </si>
+  <si>
+    <t>J. Anthony Kopec</t>
+  </si>
+  <si>
+    <t>Elinor Krueger</t>
+  </si>
+  <si>
+    <t>Dan Latham</t>
+  </si>
+  <si>
+    <t>Kara S. Leigh</t>
+  </si>
+  <si>
+    <t>Kevin Lingle</t>
+  </si>
+  <si>
+    <t>Claire 'Fluff' Llewellyn</t>
+  </si>
+  <si>
+    <t>Martin Lustenberger</t>
+  </si>
+  <si>
+    <t>Mino Mackic</t>
+  </si>
+  <si>
+    <t>Jorge Magana</t>
+  </si>
+  <si>
+    <t>Blaine Mallory</t>
+  </si>
+  <si>
+    <t>Tommy Martin</t>
+  </si>
+  <si>
+    <t>Nathyn Masters</t>
+  </si>
+  <si>
+    <t>Keira McCarthy</t>
+  </si>
+  <si>
+    <t>Tj McGinty</t>
+  </si>
+  <si>
+    <t>Abby Rose Merrill</t>
+  </si>
+  <si>
+    <t>Madison Moran</t>
+  </si>
+  <si>
+    <t>Larry Nazimek</t>
+  </si>
+  <si>
+    <t>Jim Nieciecki</t>
+  </si>
+  <si>
+    <t>Dewayne Perkins</t>
+  </si>
+  <si>
+    <t>Andrew Popovich</t>
+  </si>
+  <si>
+    <t>Elizabeth Reiners</t>
+  </si>
+  <si>
+    <t>Tim Rixx</t>
+  </si>
+  <si>
+    <t>Matty Robinson</t>
+  </si>
+  <si>
+    <t>Michelle Roman</t>
+  </si>
+  <si>
+    <t>Bryan Royston</t>
+  </si>
+  <si>
+    <t>Angelica Salek</t>
+  </si>
+  <si>
+    <t>Grace Santos</t>
+  </si>
+  <si>
+    <t>Arthur-Angelo Sarinas</t>
+  </si>
+  <si>
+    <t>Louis Scherschel</t>
+  </si>
+  <si>
+    <t>Joy Schoeph</t>
+  </si>
+  <si>
+    <t>Jacqueline Scislowski</t>
+  </si>
+  <si>
+    <t>Thomas Städeli</t>
+  </si>
+  <si>
+    <t>Miro Svercel</t>
+  </si>
+  <si>
+    <t>Mindy Turano</t>
+  </si>
+  <si>
+    <t>Kaylee Vazquez</t>
+  </si>
+  <si>
+    <t>Lauren Vilips</t>
+  </si>
+  <si>
+    <t>Jamie Mackenzie Williams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +1024,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -737,17 +1379,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D988C6E-1CE2-46EF-9C77-9934CB43C7C9}">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B313" sqref="B313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1906,7 +2548,2296 @@
         <v>111</v>
       </c>
     </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>112</v>
+      </c>
+      <c r="B117" t="s">
+        <v>113</v>
+      </c>
+      <c r="C117" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>112</v>
+      </c>
+      <c r="B118" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>112</v>
+      </c>
+      <c r="B119" t="s">
+        <v>113</v>
+      </c>
+      <c r="C119" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>112</v>
+      </c>
+      <c r="B120" t="s">
+        <v>113</v>
+      </c>
+      <c r="C120" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>112</v>
+      </c>
+      <c r="B121" t="s">
+        <v>113</v>
+      </c>
+      <c r="C121" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" t="s">
+        <v>113</v>
+      </c>
+      <c r="C122" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>112</v>
+      </c>
+      <c r="B123" t="s">
+        <v>113</v>
+      </c>
+      <c r="C123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>112</v>
+      </c>
+      <c r="B124" t="s">
+        <v>113</v>
+      </c>
+      <c r="C124" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>112</v>
+      </c>
+      <c r="B126" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127" t="s">
+        <v>113</v>
+      </c>
+      <c r="C127" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>112</v>
+      </c>
+      <c r="B128" t="s">
+        <v>113</v>
+      </c>
+      <c r="C128" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" t="s">
+        <v>113</v>
+      </c>
+      <c r="C129" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130" t="s">
+        <v>113</v>
+      </c>
+      <c r="C130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>112</v>
+      </c>
+      <c r="B131" t="s">
+        <v>113</v>
+      </c>
+      <c r="C131" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>112</v>
+      </c>
+      <c r="B132" t="s">
+        <v>113</v>
+      </c>
+      <c r="C132" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>112</v>
+      </c>
+      <c r="B133" t="s">
+        <v>113</v>
+      </c>
+      <c r="C133" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>112</v>
+      </c>
+      <c r="B134" t="s">
+        <v>113</v>
+      </c>
+      <c r="C134" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>112</v>
+      </c>
+      <c r="B135" t="s">
+        <v>113</v>
+      </c>
+      <c r="C135" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>112</v>
+      </c>
+      <c r="B136" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>112</v>
+      </c>
+      <c r="B137" t="s">
+        <v>113</v>
+      </c>
+      <c r="C137" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>112</v>
+      </c>
+      <c r="B138" t="s">
+        <v>113</v>
+      </c>
+      <c r="C138" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>112</v>
+      </c>
+      <c r="B139" t="s">
+        <v>113</v>
+      </c>
+      <c r="C139" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>112</v>
+      </c>
+      <c r="B140" t="s">
+        <v>113</v>
+      </c>
+      <c r="C140" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>112</v>
+      </c>
+      <c r="B141" t="s">
+        <v>113</v>
+      </c>
+      <c r="C141" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>112</v>
+      </c>
+      <c r="B142" t="s">
+        <v>113</v>
+      </c>
+      <c r="C142" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>112</v>
+      </c>
+      <c r="B143" t="s">
+        <v>113</v>
+      </c>
+      <c r="C143" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>112</v>
+      </c>
+      <c r="B144" t="s">
+        <v>113</v>
+      </c>
+      <c r="C144" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>112</v>
+      </c>
+      <c r="B145" t="s">
+        <v>113</v>
+      </c>
+      <c r="C145" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>112</v>
+      </c>
+      <c r="B146" t="s">
+        <v>113</v>
+      </c>
+      <c r="C146" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>112</v>
+      </c>
+      <c r="B147" t="s">
+        <v>113</v>
+      </c>
+      <c r="C147" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>112</v>
+      </c>
+      <c r="B148" t="s">
+        <v>113</v>
+      </c>
+      <c r="C148" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>112</v>
+      </c>
+      <c r="B149" t="s">
+        <v>113</v>
+      </c>
+      <c r="C149" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>112</v>
+      </c>
+      <c r="B150" t="s">
+        <v>113</v>
+      </c>
+      <c r="C150" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>112</v>
+      </c>
+      <c r="B151" t="s">
+        <v>113</v>
+      </c>
+      <c r="C151" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>112</v>
+      </c>
+      <c r="B152" t="s">
+        <v>113</v>
+      </c>
+      <c r="C152" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>112</v>
+      </c>
+      <c r="B153" t="s">
+        <v>113</v>
+      </c>
+      <c r="C153" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>112</v>
+      </c>
+      <c r="B154" t="s">
+        <v>113</v>
+      </c>
+      <c r="C154" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>112</v>
+      </c>
+      <c r="B155" t="s">
+        <v>113</v>
+      </c>
+      <c r="C155" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>112</v>
+      </c>
+      <c r="B156" t="s">
+        <v>113</v>
+      </c>
+      <c r="C156" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>112</v>
+      </c>
+      <c r="B157" t="s">
+        <v>113</v>
+      </c>
+      <c r="C157" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>112</v>
+      </c>
+      <c r="B158" t="s">
+        <v>113</v>
+      </c>
+      <c r="C158" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>112</v>
+      </c>
+      <c r="B159" t="s">
+        <v>113</v>
+      </c>
+      <c r="C159" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>112</v>
+      </c>
+      <c r="B160" t="s">
+        <v>113</v>
+      </c>
+      <c r="C160" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>112</v>
+      </c>
+      <c r="B161" t="s">
+        <v>113</v>
+      </c>
+      <c r="C161" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>112</v>
+      </c>
+      <c r="B162" t="s">
+        <v>113</v>
+      </c>
+      <c r="C162" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>112</v>
+      </c>
+      <c r="B163" t="s">
+        <v>113</v>
+      </c>
+      <c r="C163" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>112</v>
+      </c>
+      <c r="B164" t="s">
+        <v>113</v>
+      </c>
+      <c r="C164" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>112</v>
+      </c>
+      <c r="B165" t="s">
+        <v>113</v>
+      </c>
+      <c r="C165" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>112</v>
+      </c>
+      <c r="B166" t="s">
+        <v>113</v>
+      </c>
+      <c r="C166" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>112</v>
+      </c>
+      <c r="B167" t="s">
+        <v>113</v>
+      </c>
+      <c r="C167" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>112</v>
+      </c>
+      <c r="B168" t="s">
+        <v>113</v>
+      </c>
+      <c r="C168" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>112</v>
+      </c>
+      <c r="B169" t="s">
+        <v>113</v>
+      </c>
+      <c r="C169" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>112</v>
+      </c>
+      <c r="B170" t="s">
+        <v>113</v>
+      </c>
+      <c r="C170" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>112</v>
+      </c>
+      <c r="B171" t="s">
+        <v>113</v>
+      </c>
+      <c r="C171" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>112</v>
+      </c>
+      <c r="B172" t="s">
+        <v>113</v>
+      </c>
+      <c r="C172" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>112</v>
+      </c>
+      <c r="B173" t="s">
+        <v>113</v>
+      </c>
+      <c r="C173" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>112</v>
+      </c>
+      <c r="B174" t="s">
+        <v>113</v>
+      </c>
+      <c r="C174" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>112</v>
+      </c>
+      <c r="B175" t="s">
+        <v>113</v>
+      </c>
+      <c r="C175" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>112</v>
+      </c>
+      <c r="B176" t="s">
+        <v>113</v>
+      </c>
+      <c r="C176" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>112</v>
+      </c>
+      <c r="B177" t="s">
+        <v>113</v>
+      </c>
+      <c r="C177" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>112</v>
+      </c>
+      <c r="B178" t="s">
+        <v>113</v>
+      </c>
+      <c r="C178" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>112</v>
+      </c>
+      <c r="B179" t="s">
+        <v>113</v>
+      </c>
+      <c r="C179" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>112</v>
+      </c>
+      <c r="B180" t="s">
+        <v>113</v>
+      </c>
+      <c r="C180" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>188</v>
+      </c>
+      <c r="B181" t="s">
+        <v>189</v>
+      </c>
+      <c r="C181" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182" t="s">
+        <v>189</v>
+      </c>
+      <c r="C182" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183" t="s">
+        <v>189</v>
+      </c>
+      <c r="C183" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" t="s">
+        <v>189</v>
+      </c>
+      <c r="C185" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" t="s">
+        <v>189</v>
+      </c>
+      <c r="C186" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" t="s">
+        <v>189</v>
+      </c>
+      <c r="C187" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>189</v>
+      </c>
+      <c r="C188" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>189</v>
+      </c>
+      <c r="C189" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>189</v>
+      </c>
+      <c r="C190" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>188</v>
+      </c>
+      <c r="B191" t="s">
+        <v>189</v>
+      </c>
+      <c r="C191" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>188</v>
+      </c>
+      <c r="B192" t="s">
+        <v>189</v>
+      </c>
+      <c r="C192" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>188</v>
+      </c>
+      <c r="B193" t="s">
+        <v>189</v>
+      </c>
+      <c r="C193" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>188</v>
+      </c>
+      <c r="B194" t="s">
+        <v>189</v>
+      </c>
+      <c r="C194" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>188</v>
+      </c>
+      <c r="B195" t="s">
+        <v>189</v>
+      </c>
+      <c r="C195" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>188</v>
+      </c>
+      <c r="B196" t="s">
+        <v>189</v>
+      </c>
+      <c r="C196" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>206</v>
+      </c>
+      <c r="B197" t="s">
+        <v>207</v>
+      </c>
+      <c r="C197" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>206</v>
+      </c>
+      <c r="B198" t="s">
+        <v>207</v>
+      </c>
+      <c r="C198" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>206</v>
+      </c>
+      <c r="B199" t="s">
+        <v>207</v>
+      </c>
+      <c r="C199" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>206</v>
+      </c>
+      <c r="B200" t="s">
+        <v>207</v>
+      </c>
+      <c r="C200" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" t="s">
+        <v>207</v>
+      </c>
+      <c r="C201" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202" t="s">
+        <v>207</v>
+      </c>
+      <c r="C202" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" t="s">
+        <v>207</v>
+      </c>
+      <c r="C203" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" t="s">
+        <v>207</v>
+      </c>
+      <c r="C204" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" t="s">
+        <v>207</v>
+      </c>
+      <c r="C205" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>207</v>
+      </c>
+      <c r="C206" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>207</v>
+      </c>
+      <c r="C207" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>207</v>
+      </c>
+      <c r="C208" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209" t="s">
+        <v>207</v>
+      </c>
+      <c r="C209" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>206</v>
+      </c>
+      <c r="B210" t="s">
+        <v>207</v>
+      </c>
+      <c r="C210" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>206</v>
+      </c>
+      <c r="B211" t="s">
+        <v>207</v>
+      </c>
+      <c r="C211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>206</v>
+      </c>
+      <c r="B212" t="s">
+        <v>207</v>
+      </c>
+      <c r="C212" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>206</v>
+      </c>
+      <c r="B213" t="s">
+        <v>207</v>
+      </c>
+      <c r="C213" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>206</v>
+      </c>
+      <c r="B214" t="s">
+        <v>207</v>
+      </c>
+      <c r="C214" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>206</v>
+      </c>
+      <c r="B215" t="s">
+        <v>207</v>
+      </c>
+      <c r="C215" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>206</v>
+      </c>
+      <c r="B216" t="s">
+        <v>207</v>
+      </c>
+      <c r="C216" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>206</v>
+      </c>
+      <c r="B217" t="s">
+        <v>207</v>
+      </c>
+      <c r="C217" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>206</v>
+      </c>
+      <c r="B218" t="s">
+        <v>207</v>
+      </c>
+      <c r="C218" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>206</v>
+      </c>
+      <c r="B219" t="s">
+        <v>207</v>
+      </c>
+      <c r="C219" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>206</v>
+      </c>
+      <c r="B220" t="s">
+        <v>207</v>
+      </c>
+      <c r="C220" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>206</v>
+      </c>
+      <c r="B221" t="s">
+        <v>207</v>
+      </c>
+      <c r="C221" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>206</v>
+      </c>
+      <c r="B222" t="s">
+        <v>207</v>
+      </c>
+      <c r="C222" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>206</v>
+      </c>
+      <c r="B223" t="s">
+        <v>207</v>
+      </c>
+      <c r="C223" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>206</v>
+      </c>
+      <c r="B224" t="s">
+        <v>207</v>
+      </c>
+      <c r="C224" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>206</v>
+      </c>
+      <c r="B225" t="s">
+        <v>207</v>
+      </c>
+      <c r="C225" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>206</v>
+      </c>
+      <c r="B226" t="s">
+        <v>207</v>
+      </c>
+      <c r="C226" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>206</v>
+      </c>
+      <c r="B227" t="s">
+        <v>207</v>
+      </c>
+      <c r="C227" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>206</v>
+      </c>
+      <c r="B228" t="s">
+        <v>207</v>
+      </c>
+      <c r="C228" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>206</v>
+      </c>
+      <c r="B229" t="s">
+        <v>207</v>
+      </c>
+      <c r="C229" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>206</v>
+      </c>
+      <c r="B230" t="s">
+        <v>207</v>
+      </c>
+      <c r="C230" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>206</v>
+      </c>
+      <c r="B231" t="s">
+        <v>207</v>
+      </c>
+      <c r="C231" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>206</v>
+      </c>
+      <c r="B232" t="s">
+        <v>207</v>
+      </c>
+      <c r="C232" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>206</v>
+      </c>
+      <c r="B233" t="s">
+        <v>207</v>
+      </c>
+      <c r="C233" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>206</v>
+      </c>
+      <c r="B234" t="s">
+        <v>207</v>
+      </c>
+      <c r="C234" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>206</v>
+      </c>
+      <c r="B235" t="s">
+        <v>207</v>
+      </c>
+      <c r="C235" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>206</v>
+      </c>
+      <c r="B236" t="s">
+        <v>207</v>
+      </c>
+      <c r="C236" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>206</v>
+      </c>
+      <c r="B237" t="s">
+        <v>207</v>
+      </c>
+      <c r="C237" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>206</v>
+      </c>
+      <c r="B238" t="s">
+        <v>207</v>
+      </c>
+      <c r="C238" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>206</v>
+      </c>
+      <c r="B239" t="s">
+        <v>207</v>
+      </c>
+      <c r="C239" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>206</v>
+      </c>
+      <c r="B240" t="s">
+        <v>207</v>
+      </c>
+      <c r="C240" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>206</v>
+      </c>
+      <c r="B241" t="s">
+        <v>207</v>
+      </c>
+      <c r="C241" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>206</v>
+      </c>
+      <c r="B242" t="s">
+        <v>207</v>
+      </c>
+      <c r="C242" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>206</v>
+      </c>
+      <c r="B243" t="s">
+        <v>207</v>
+      </c>
+      <c r="C243" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>206</v>
+      </c>
+      <c r="B244" t="s">
+        <v>207</v>
+      </c>
+      <c r="C244" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>206</v>
+      </c>
+      <c r="B245" t="s">
+        <v>207</v>
+      </c>
+      <c r="C245" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>206</v>
+      </c>
+      <c r="B246" t="s">
+        <v>207</v>
+      </c>
+      <c r="C246" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>206</v>
+      </c>
+      <c r="B247" t="s">
+        <v>207</v>
+      </c>
+      <c r="C247" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>206</v>
+      </c>
+      <c r="B248" t="s">
+        <v>207</v>
+      </c>
+      <c r="C248" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>206</v>
+      </c>
+      <c r="B249" t="s">
+        <v>207</v>
+      </c>
+      <c r="C249" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>206</v>
+      </c>
+      <c r="B250" t="s">
+        <v>207</v>
+      </c>
+      <c r="C250" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>206</v>
+      </c>
+      <c r="B251" t="s">
+        <v>207</v>
+      </c>
+      <c r="C251" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>206</v>
+      </c>
+      <c r="B252" t="s">
+        <v>207</v>
+      </c>
+      <c r="C252" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>206</v>
+      </c>
+      <c r="B253" t="s">
+        <v>207</v>
+      </c>
+      <c r="C253" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>206</v>
+      </c>
+      <c r="B254" t="s">
+        <v>207</v>
+      </c>
+      <c r="C254" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>206</v>
+      </c>
+      <c r="B255" t="s">
+        <v>207</v>
+      </c>
+      <c r="C255" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>206</v>
+      </c>
+      <c r="B256" t="s">
+        <v>207</v>
+      </c>
+      <c r="C256" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>206</v>
+      </c>
+      <c r="B257" t="s">
+        <v>207</v>
+      </c>
+      <c r="C257" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>206</v>
+      </c>
+      <c r="B258" t="s">
+        <v>207</v>
+      </c>
+      <c r="C258" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>206</v>
+      </c>
+      <c r="B259" t="s">
+        <v>207</v>
+      </c>
+      <c r="C259" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>206</v>
+      </c>
+      <c r="B260" t="s">
+        <v>207</v>
+      </c>
+      <c r="C260" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>206</v>
+      </c>
+      <c r="B261" t="s">
+        <v>207</v>
+      </c>
+      <c r="C261" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>206</v>
+      </c>
+      <c r="B262" t="s">
+        <v>207</v>
+      </c>
+      <c r="C262" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>206</v>
+      </c>
+      <c r="B263" t="s">
+        <v>207</v>
+      </c>
+      <c r="C263" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>206</v>
+      </c>
+      <c r="B264" t="s">
+        <v>207</v>
+      </c>
+      <c r="C264" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>206</v>
+      </c>
+      <c r="B265" t="s">
+        <v>207</v>
+      </c>
+      <c r="C265" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>206</v>
+      </c>
+      <c r="B266" t="s">
+        <v>207</v>
+      </c>
+      <c r="C266" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>206</v>
+      </c>
+      <c r="B267" t="s">
+        <v>207</v>
+      </c>
+      <c r="C267" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>206</v>
+      </c>
+      <c r="B268" t="s">
+        <v>207</v>
+      </c>
+      <c r="C268" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>206</v>
+      </c>
+      <c r="B269" t="s">
+        <v>207</v>
+      </c>
+      <c r="C269" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>206</v>
+      </c>
+      <c r="B270" t="s">
+        <v>207</v>
+      </c>
+      <c r="C270" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>206</v>
+      </c>
+      <c r="B271" t="s">
+        <v>207</v>
+      </c>
+      <c r="C271" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>206</v>
+      </c>
+      <c r="B272" t="s">
+        <v>207</v>
+      </c>
+      <c r="C272" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>206</v>
+      </c>
+      <c r="B273" t="s">
+        <v>207</v>
+      </c>
+      <c r="C273" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>206</v>
+      </c>
+      <c r="B274" t="s">
+        <v>207</v>
+      </c>
+      <c r="C274" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>206</v>
+      </c>
+      <c r="B275" t="s">
+        <v>207</v>
+      </c>
+      <c r="C275" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>206</v>
+      </c>
+      <c r="B276" t="s">
+        <v>207</v>
+      </c>
+      <c r="C276" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>206</v>
+      </c>
+      <c r="B277" t="s">
+        <v>207</v>
+      </c>
+      <c r="C277" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>206</v>
+      </c>
+      <c r="B278" t="s">
+        <v>207</v>
+      </c>
+      <c r="C278" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>206</v>
+      </c>
+      <c r="B279" t="s">
+        <v>207</v>
+      </c>
+      <c r="C279" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>206</v>
+      </c>
+      <c r="B280" t="s">
+        <v>207</v>
+      </c>
+      <c r="C280" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>206</v>
+      </c>
+      <c r="B281" t="s">
+        <v>207</v>
+      </c>
+      <c r="C281" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>206</v>
+      </c>
+      <c r="B282" t="s">
+        <v>207</v>
+      </c>
+      <c r="C282" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>206</v>
+      </c>
+      <c r="B283" t="s">
+        <v>207</v>
+      </c>
+      <c r="C283" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>206</v>
+      </c>
+      <c r="B284" t="s">
+        <v>207</v>
+      </c>
+      <c r="C284" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>206</v>
+      </c>
+      <c r="B285" t="s">
+        <v>207</v>
+      </c>
+      <c r="C285" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>206</v>
+      </c>
+      <c r="B286" t="s">
+        <v>207</v>
+      </c>
+      <c r="C286" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>206</v>
+      </c>
+      <c r="B287" t="s">
+        <v>207</v>
+      </c>
+      <c r="C287" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>206</v>
+      </c>
+      <c r="B288" t="s">
+        <v>207</v>
+      </c>
+      <c r="C288" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>206</v>
+      </c>
+      <c r="B289" t="s">
+        <v>207</v>
+      </c>
+      <c r="C289" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>206</v>
+      </c>
+      <c r="B290" t="s">
+        <v>207</v>
+      </c>
+      <c r="C290" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>206</v>
+      </c>
+      <c r="B291" t="s">
+        <v>207</v>
+      </c>
+      <c r="C291" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>206</v>
+      </c>
+      <c r="B292" t="s">
+        <v>207</v>
+      </c>
+      <c r="C292" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>206</v>
+      </c>
+      <c r="B293" t="s">
+        <v>207</v>
+      </c>
+      <c r="C293" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>206</v>
+      </c>
+      <c r="B294" t="s">
+        <v>207</v>
+      </c>
+      <c r="C294" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>206</v>
+      </c>
+      <c r="B295" t="s">
+        <v>207</v>
+      </c>
+      <c r="C295" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>206</v>
+      </c>
+      <c r="B296" t="s">
+        <v>207</v>
+      </c>
+      <c r="C296" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>206</v>
+      </c>
+      <c r="B297" t="s">
+        <v>207</v>
+      </c>
+      <c r="C297" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>206</v>
+      </c>
+      <c r="B298" t="s">
+        <v>207</v>
+      </c>
+      <c r="C298" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>206</v>
+      </c>
+      <c r="B299" t="s">
+        <v>207</v>
+      </c>
+      <c r="C299" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>206</v>
+      </c>
+      <c r="B300" t="s">
+        <v>207</v>
+      </c>
+      <c r="C300" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>206</v>
+      </c>
+      <c r="B301" t="s">
+        <v>207</v>
+      </c>
+      <c r="C301" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>206</v>
+      </c>
+      <c r="B302" t="s">
+        <v>207</v>
+      </c>
+      <c r="C302" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>206</v>
+      </c>
+      <c r="B303" t="s">
+        <v>207</v>
+      </c>
+      <c r="C303" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>206</v>
+      </c>
+      <c r="B304" t="s">
+        <v>207</v>
+      </c>
+      <c r="C304" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>206</v>
+      </c>
+      <c r="B305" t="s">
+        <v>207</v>
+      </c>
+      <c r="C305" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>206</v>
+      </c>
+      <c r="B306" t="s">
+        <v>207</v>
+      </c>
+      <c r="C306" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>206</v>
+      </c>
+      <c r="B307" t="s">
+        <v>207</v>
+      </c>
+      <c r="C307" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>206</v>
+      </c>
+      <c r="B308" t="s">
+        <v>207</v>
+      </c>
+      <c r="C308" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>206</v>
+      </c>
+      <c r="B309" t="s">
+        <v>207</v>
+      </c>
+      <c r="C309" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>206</v>
+      </c>
+      <c r="B310" t="s">
+        <v>207</v>
+      </c>
+      <c r="C310" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>206</v>
+      </c>
+      <c r="B311" t="s">
+        <v>207</v>
+      </c>
+      <c r="C311" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>206</v>
+      </c>
+      <c r="B312" t="s">
+        <v>207</v>
+      </c>
+      <c r="C312" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>206</v>
+      </c>
+      <c r="B313" t="s">
+        <v>207</v>
+      </c>
+      <c r="C313" t="s">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/100CroreFilmData.xlsx
+++ b/100CroreFilmData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clubp\Documents\UIUC_2020-2021\MACS_207\Proj_2\MACS-207\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FBD362-6ADF-4403-BDE0-F2ECE6A719AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38E2724-DD52-492C-94D6-DD9967F8FB40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7810" xr2:uid="{E3484500-DD51-43FE-A978-719FE100B522}"/>
   </bookViews>
@@ -1035,18 +1035,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1061,10 +1055,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1382,8 +1377,8 @@
   <dimension ref="A1:C313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B313" sqref="B313"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1394,7 +1389,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1405,7 +1400,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
@@ -1416,7 +1411,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
@@ -1427,7 +1422,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
@@ -1438,7 +1433,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
@@ -1449,7 +1444,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -1460,7 +1455,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -1471,7 +1466,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
@@ -1482,7 +1477,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -1493,7 +1488,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1504,7 +1499,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
@@ -1515,7 +1510,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
@@ -1526,7 +1521,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
@@ -1537,7 +1532,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -1548,7 +1543,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
@@ -1559,7 +1554,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
@@ -1570,7 +1565,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
@@ -1581,7 +1576,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
@@ -1592,7 +1587,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1603,7 +1598,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1614,7 +1609,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B21" t="s">
@@ -1625,7 +1620,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B22" t="s">
@@ -1636,7 +1631,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
@@ -1647,7 +1642,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B24" t="s">
@@ -1658,7 +1653,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B25" t="s">
@@ -1669,7 +1664,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B26" t="s">
@@ -1680,7 +1675,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B27" t="s">
@@ -1691,7 +1686,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B28" t="s">
